--- a/binnedResults240416.xlsx
+++ b/binnedResults240416.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JohnMatthew/Documents/dlnmRev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C2F54E2-BDF0-884C-A061-7BAA247EE12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11663C5-9745-824E-A45E-B3F43C430D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8000" yWindow="3460" windowWidth="28040" windowHeight="17440" xr2:uid="{F9218E3F-FCE5-9549-A7A1-604EF42D548A}"/>
   </bookViews>
